--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1247.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1247.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.029736748420165</v>
+        <v>1.212558507919312</v>
       </c>
       <c r="B1">
-        <v>2.91478753073758</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.320815546408437</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8583144590695447</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.7014893528757985</v>
+        <v>1.200716495513916</v>
       </c>
     </row>
   </sheetData>
